--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H2">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I2">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J2">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.471191666666667</v>
+        <v>1.475208</v>
       </c>
       <c r="N2">
-        <v>4.413575</v>
+        <v>4.425624</v>
       </c>
       <c r="O2">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987012</v>
       </c>
       <c r="P2">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987013</v>
       </c>
       <c r="Q2">
-        <v>54.286447284575</v>
+        <v>54.500621819448</v>
       </c>
       <c r="R2">
-        <v>488.578025561175</v>
+        <v>490.505596375032</v>
       </c>
       <c r="S2">
-        <v>0.4667203977429693</v>
+        <v>0.6838086110431338</v>
       </c>
       <c r="T2">
-        <v>0.4667203977429693</v>
+        <v>0.683808611043134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H3">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I3">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J3">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8106620000000001</v>
+        <v>0.3216333333333333</v>
       </c>
       <c r="N3">
-        <v>2.431986</v>
+        <v>0.9649</v>
       </c>
       <c r="O3">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="P3">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="Q3">
-        <v>29.913138393666</v>
+        <v>11.88253904841111</v>
       </c>
       <c r="R3">
-        <v>269.218245542994</v>
+        <v>106.9428514357</v>
       </c>
       <c r="S3">
-        <v>0.2571741667979661</v>
+        <v>0.1490878865433484</v>
       </c>
       <c r="T3">
-        <v>0.2571741667979661</v>
+        <v>0.1490878865433485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>10.124457</v>
       </c>
       <c r="I4">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J4">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.471191666666667</v>
+        <v>1.475208</v>
       </c>
       <c r="N4">
-        <v>4.413575</v>
+        <v>4.425624</v>
       </c>
       <c r="O4">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987012</v>
       </c>
       <c r="P4">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987013</v>
       </c>
       <c r="Q4">
-        <v>4.965005589308333</v>
+        <v>4.978559987352</v>
       </c>
       <c r="R4">
-        <v>44.68505030377499</v>
+        <v>44.807039886168</v>
       </c>
       <c r="S4">
-        <v>0.04268596490189702</v>
+        <v>0.06246501555935043</v>
       </c>
       <c r="T4">
-        <v>0.04268596490189702</v>
+        <v>0.06246501555935044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8106620000000001</v>
+        <v>0.3216333333333333</v>
       </c>
       <c r="N5">
-        <v>2.431986</v>
+        <v>0.9649</v>
       </c>
       <c r="O5">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="P5">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="Q5">
-        <v>2.735837520178</v>
+        <v>1.085454284366667</v>
       </c>
       <c r="R5">
-        <v>24.622537681602</v>
+        <v>9.7690885593</v>
       </c>
       <c r="S5">
-        <v>0.0235209935342449</v>
+        <v>0.01361898198157305</v>
       </c>
       <c r="T5">
-        <v>0.0235209935342449</v>
+        <v>0.01361898198157305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H6">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I6">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J6">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.471191666666667</v>
+        <v>1.475208</v>
       </c>
       <c r="N6">
-        <v>4.413575</v>
+        <v>4.425624</v>
       </c>
       <c r="O6">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987012</v>
       </c>
       <c r="P6">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987013</v>
       </c>
       <c r="Q6">
-        <v>15.74074895180833</v>
+        <v>5.955865617912002</v>
       </c>
       <c r="R6">
-        <v>141.666740566275</v>
+        <v>53.60279056120801</v>
       </c>
       <c r="S6">
-        <v>0.1353289629186631</v>
+        <v>0.07472707759621688</v>
       </c>
       <c r="T6">
-        <v>0.1353289629186631</v>
+        <v>0.07472707759621688</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H7">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I7">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J7">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8106620000000001</v>
+        <v>0.3216333333333333</v>
       </c>
       <c r="N7">
-        <v>2.431986</v>
+        <v>0.9649</v>
       </c>
       <c r="O7">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="P7">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="Q7">
-        <v>8.673531339177998</v>
+        <v>1.298532079255556</v>
       </c>
       <c r="R7">
-        <v>78.061782052602</v>
+        <v>11.6867887133</v>
       </c>
       <c r="S7">
-        <v>0.07456951410425969</v>
+        <v>0.01629242727637722</v>
       </c>
       <c r="T7">
-        <v>0.07456951410425969</v>
+        <v>0.01629242727637722</v>
       </c>
     </row>
   </sheetData>
